--- a/Portas Lógicas Desafio - Natália.xlsx
+++ b/Portas Lógicas Desafio - Natália.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natália Nogueira\Desktop\ADS\ADS_Automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCC80D-5BDA-42C5-B42E-834F35A3AA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF5D6A-9654-4C76-9F92-C5D2FE9FD29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{24DA9578-FFF7-4876-8AD6-8B57F76818AD}"/>
   </bookViews>
@@ -119,9 +119,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,6 +127,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -155,27 +155,171 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="blob:https://web.whatsapp.com/bc6a54cc-b364-4c9f-bd47-b928ca52ca96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98990C6-8CE7-484A-9A90-AA88567667A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2393950"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="blob:https://web.whatsapp.com/bc6a54cc-b364-4c9f-bd47-b928ca52ca96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0001F284-1987-45CE-A4CD-FA75D230671D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="2393950"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="blob:https://web.whatsapp.com/bc6a54cc-b364-4c9f-bd47-b928ca52ca96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC1DC6C-7C09-440C-866F-F97BF4F4FDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3968750" y="368300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7030</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>12212</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EFE7BC-586F-41B7-847D-932A6B0C94AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4503CD9-8B52-4C37-8CA1-3B3786149001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -183,25 +327,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="25000"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="361950"/>
-          <a:ext cx="4356100" cy="958850"/>
+          <a:off x="3974856" y="366347"/>
+          <a:ext cx="4359519" cy="1386010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -509,7 +646,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,78 +658,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
     </row>
